--- a/Tatulya/create cards/07.04.2024/ошибки 2024-04-07 Термонаклейка.xlsx
+++ b/Tatulya/create cards/07.04.2024/ошибки 2024-04-07 Термонаклейка.xlsx
@@ -1399,7 +1399,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1151" uniqueCount="1072">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1103" uniqueCount="1055">
   <si>
     <t xml:space="preserve">Как работать с шаблоном</t>
   </si>
@@ -4630,97 +4630,7 @@
     <t xml:space="preserve">Ⓜ️ Не более 3 вариантов</t>
   </si>
   <si>
-    <t xml:space="preserve">Термонаклейка Мишка на лыжах</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Термонаклейка для одежды: Мишка на лыжах</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/87_vert_1.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/87_vert_2.jpg
-https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/87_vert_3.jpg
-https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/87_vert_4.jpg
-https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/87_vert_5.jpg
-https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/87_vert_6.jpg
-https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/87_vert_7.jpg
-https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/instruction_A4.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Amazing Pics</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DTF A5 set2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Мишка на лыжах</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/87_vert_color.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">термонаклейка для одежды, термотрансфер, заплатка, принт, наклейка для декора одежды и других предметов из текстиля, Мишка на лыжах</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Техническая ошибка. Попробуйте выполнить запрос позже или обратитесь в Службу поддержки в категорию "Контент / Работа с карточкой товара" → "Создание и редактирование товаров" https://seller.ozon.ru/main?helpCenter=create-issue.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Термонаклейка Мишка скейт бежит</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Термонаклейка для одежды: Мишка скейт бежит</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/92_vert_1.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/92_vert_2.jpg
-https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/92_vert_3.jpg
-https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/92_vert_4.jpg
-https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/92_vert_5.jpg
-https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/92_vert_6.jpg
-https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/92_vert_7.jpg
-https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/instruction_A4.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Мишка скейт бежит</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/92_vert_color.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">термонаклейка для одежды, термотрансфер, заплатка, принт, наклейка для декора одежды и других предметов из текстиля, Мишка скейт бежит</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Термонаклейка Дисней утка Дейзи и Минни сидят</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Термонаклейка для одежды: Дисней утка Дейзи и Минни сидят</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/123_horiz_1.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/123_horiz_2.jpg
-https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/123_horiz_3.jpg
-https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/123_horiz_4.jpg
-https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/123_horiz_5.jpg
-https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/123_horiz_6.jpg
-https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/123_horiz_7.jpg
-https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/instruction_A4.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Дисней утка Дейзи и Минни сидят</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/123_horiz_color.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">термонаклейка для одежды, термотрансфер, заплатка, принт, наклейка для декора одежды и других предметов из текстиля, Дисней утка Дейзи и Минни сидят</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Термонаклейка Дейзи и Минни Маус коктейль мороженое</t>
+    <t xml:space="preserve">Термонаклейка Дейзи и Минни Маус коктейль</t>
   </si>
   <si>
     <t xml:space="preserve">Термонаклейка для одежды: Дейзи и Минни Маус коктейль мороженое</t>
@@ -4738,15 +4648,27 @@
 https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/instruction_A4.jpg</t>
   </si>
   <si>
+    <t xml:space="preserve">Amazing Pics</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DTF A5 set2</t>
+  </si>
+  <si>
     <t xml:space="preserve">Дейзи и Минни Маус коктейль мороженое</t>
   </si>
   <si>
+    <t xml:space="preserve">Термонаклейка Дейзи и Минни Маус коктейль мороженое</t>
+  </si>
+  <si>
     <t xml:space="preserve">https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/127_horiz_color.jpg</t>
   </si>
   <si>
     <t xml:space="preserve">термонаклейка для одежды, термотрансфер, заплатка, принт, наклейка для декора одежды и других предметов из текстиля, Дейзи и Минни Маус коктейль мороженое</t>
   </si>
   <si>
+    <t xml:space="preserve">Техническая ошибка. Попробуйте выполнить запрос позже или обратитесь в Службу поддержки в категорию "Контент / Работа с карточкой товара" → "Создание и редактирование товаров" https://seller.ozon.ru/main?helpCenter=create-issue.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Озон.Видео</t>
   </si>
   <si>
@@ -4759,10 +4681,19 @@
     <t xml:space="preserve">Озон.Видео: товары на видео</t>
   </si>
   <si>
+    <t xml:space="preserve">Термонаклейка Мишка на лыжах</t>
+  </si>
+  <si>
     <t xml:space="preserve">инструкция_dtf.mp4</t>
   </si>
   <si>
     <t xml:space="preserve">https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/Video_DTF.mp4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термонаклейка Мишка скейт бежит</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термонаклейка Дисней утка Дейзи и Минни сидят</t>
   </si>
   <si>
     <t xml:space="preserve">Озон.Видеообложка</t>
@@ -5579,13 +5510,13 @@
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="9" width="16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="27"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="4" style="0" width="8.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="4" style="0" width="8.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="61.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="11"/>
       <c r="B1" s="12" t="s">
-        <v>1069</v>
+        <v>1052</v>
       </c>
       <c r="C1" s="12"/>
     </row>
@@ -5594,10 +5525,10 @@
         <v>982</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>1070</v>
+        <v>1053</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>1071</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="41.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5634,7 +5565,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.52"/>
   </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -5660,7 +5591,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9071,7 +9002,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9179,7 +9110,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9215,7 +9146,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AS1007"/>
+  <dimension ref="A1:AS1004"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
@@ -9229,7 +9160,7 @@
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="5.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="9" width="57.1"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="47.01"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="47.02"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="9" width="27"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="27"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="9" width="27"/>
@@ -9240,7 +9171,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="20" style="0" width="27"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="9" width="27"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="45" min="24" style="0" width="27"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="46" style="0" width="8.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="46" style="0" width="8.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="61.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9520,7 +9451,7 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>1030</v>
@@ -9571,7 +9502,7 @@
         <v>38</v>
       </c>
       <c r="X4" s="0" t="s">
-        <v>1030</v>
+        <v>1037</v>
       </c>
       <c r="Z4" s="20" t="s">
         <v>740</v>
@@ -9580,227 +9511,35 @@
         <v>774</v>
       </c>
       <c r="AG4" s="0" t="s">
-        <v>1037</v>
+        <v>1038</v>
       </c>
       <c r="AO4" s="0" t="s">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="AR4" s="0" t="s">
-        <v>1039</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>1040</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>1041</v>
-      </c>
-      <c r="D5" s="9" t="n">
-        <v>349</v>
-      </c>
-      <c r="E5" s="0" t="n">
-        <v>524</v>
-      </c>
-      <c r="F5" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="G5" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="J5" s="9" t="n">
-        <v>12</v>
-      </c>
-      <c r="K5" s="9" t="n">
-        <v>180</v>
-      </c>
-      <c r="L5" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" s="9" t="n">
-        <v>210</v>
-      </c>
-      <c r="N5" s="9" t="s">
-        <v>1042</v>
-      </c>
-      <c r="O5" s="21" t="s">
-        <v>1043</v>
-      </c>
-      <c r="R5" s="9" t="s">
-        <v>1034</v>
-      </c>
-      <c r="S5" s="9" t="s">
-        <v>1035</v>
-      </c>
-      <c r="V5" s="0" t="s">
-        <v>1044</v>
-      </c>
-      <c r="W5" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="X5" s="0" t="s">
-        <v>1040</v>
-      </c>
-      <c r="Z5" s="20" t="s">
-        <v>740</v>
-      </c>
-      <c r="AC5" s="20" t="s">
-        <v>774</v>
-      </c>
-      <c r="AG5" s="0" t="s">
-        <v>1045</v>
-      </c>
-      <c r="AO5" s="0" t="s">
-        <v>1046</v>
-      </c>
-      <c r="AR5" s="0" t="s">
-        <v>1039</v>
-      </c>
+      <c r="F5" s="19"/>
+      <c r="G5" s="20"/>
+      <c r="W5" s="19"/>
+      <c r="Z5" s="20"/>
+      <c r="AC5" s="20"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>1047</v>
-      </c>
-      <c r="C6" s="0" t="s">
-        <v>1048</v>
-      </c>
-      <c r="D6" s="9" t="n">
-        <v>349</v>
-      </c>
-      <c r="E6" s="0" t="n">
-        <v>524</v>
-      </c>
-      <c r="F6" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="G6" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="J6" s="9" t="n">
-        <v>12</v>
-      </c>
-      <c r="K6" s="9" t="n">
-        <v>180</v>
-      </c>
-      <c r="L6" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" s="9" t="n">
-        <v>210</v>
-      </c>
-      <c r="N6" s="9" t="s">
-        <v>1049</v>
-      </c>
-      <c r="O6" s="21" t="s">
-        <v>1050</v>
-      </c>
-      <c r="R6" s="9" t="s">
-        <v>1034</v>
-      </c>
-      <c r="S6" s="9" t="s">
-        <v>1035</v>
-      </c>
-      <c r="V6" s="0" t="s">
-        <v>1051</v>
-      </c>
-      <c r="W6" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="X6" s="0" t="s">
-        <v>1047</v>
-      </c>
-      <c r="Z6" s="20" t="s">
-        <v>740</v>
-      </c>
-      <c r="AC6" s="20" t="s">
-        <v>774</v>
-      </c>
-      <c r="AG6" s="0" t="s">
-        <v>1052</v>
-      </c>
-      <c r="AO6" s="0" t="s">
-        <v>1053</v>
-      </c>
-      <c r="AR6" s="0" t="s">
-        <v>1039</v>
-      </c>
+      <c r="F6" s="19"/>
+      <c r="G6" s="20"/>
+      <c r="W6" s="19"/>
+      <c r="Z6" s="20"/>
+      <c r="AC6" s="20"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>1054</v>
-      </c>
-      <c r="C7" s="0" t="s">
-        <v>1055</v>
-      </c>
-      <c r="D7" s="9" t="n">
-        <v>349</v>
-      </c>
-      <c r="E7" s="0" t="n">
-        <v>524</v>
-      </c>
-      <c r="F7" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="G7" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="J7" s="9" t="n">
-        <v>12</v>
-      </c>
-      <c r="K7" s="9" t="n">
-        <v>180</v>
-      </c>
-      <c r="L7" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" s="9" t="n">
-        <v>210</v>
-      </c>
-      <c r="N7" s="9" t="s">
-        <v>1056</v>
-      </c>
-      <c r="O7" s="21" t="s">
-        <v>1057</v>
-      </c>
-      <c r="R7" s="9" t="s">
-        <v>1034</v>
-      </c>
-      <c r="S7" s="9" t="s">
-        <v>1035</v>
-      </c>
-      <c r="V7" s="0" t="s">
-        <v>1058</v>
-      </c>
-      <c r="W7" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="X7" s="0" t="s">
-        <v>1054</v>
-      </c>
-      <c r="Z7" s="20" t="s">
-        <v>740</v>
-      </c>
-      <c r="AC7" s="20" t="s">
-        <v>774</v>
-      </c>
-      <c r="AG7" s="0" t="s">
-        <v>1059</v>
-      </c>
-      <c r="AO7" s="0" t="s">
-        <v>1060</v>
-      </c>
-      <c r="AR7" s="0" t="s">
-        <v>1039</v>
-      </c>
+      <c r="F7" s="19"/>
+      <c r="G7" s="20"/>
+      <c r="W7" s="19"/>
+      <c r="Z7" s="20"/>
+      <c r="AC7" s="20"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F8" s="19"/>
@@ -16780,27 +16519,6 @@
       <c r="W1004" s="19"/>
       <c r="Z1004" s="20"/>
       <c r="AC1004" s="20"/>
-    </row>
-    <row r="1005" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F1005" s="19"/>
-      <c r="G1005" s="20"/>
-      <c r="W1005" s="19"/>
-      <c r="Z1005" s="20"/>
-      <c r="AC1005" s="20"/>
-    </row>
-    <row r="1006" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F1006" s="19"/>
-      <c r="G1006" s="20"/>
-      <c r="W1006" s="19"/>
-      <c r="Z1006" s="20"/>
-      <c r="AC1006" s="20"/>
-    </row>
-    <row r="1007" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F1007" s="19"/>
-      <c r="G1007" s="20"/>
-      <c r="W1007" s="19"/>
-      <c r="Z1007" s="20"/>
-      <c r="AC1007" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -16810,71 +16528,71 @@
     <mergeCell ref="W1:AS1"/>
   </mergeCells>
   <dataValidations count="17">
-    <dataValidation allowBlank="false" error="Неверный формат данных" errorTitle="Ошибка" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="A4:A1007 H4:H1007 T4:T1007 AD4:AD1007 AJ4:AJ1007 AQ4:AQ1007" type="whole">
+    <dataValidation allowBlank="false" error="Неверный формат данных" errorTitle="Ошибка" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="A4:A1004 H4:H1004 T4:T1004 AD4:AD1004 AJ4:AJ1004 AQ4:AQ1004" type="whole">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" error="Неверный формат данных" errorTitle="Ошибка" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="D4:D1007" type="decimal">
+    <dataValidation allowBlank="true" error="Неверный формат данных" errorTitle="Ошибка" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="D4:D1004" type="decimal">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="false" error="Неверный формат данных" errorTitle="Ошибка" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="E4:E1007 AA4:AB1007" type="decimal">
+    <dataValidation allowBlank="false" error="Неверный формат данных" errorTitle="Ошибка" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="E4:E1004 AA4:AB1004" type="decimal">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" error="Выберите значение из списка" errorTitle="Ошибка" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="F4:F1007" type="list">
+    <dataValidation allowBlank="true" error="Выберите значение из списка" errorTitle="Ошибка" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="F4:F1004" type="list">
       <formula1>name5</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="false" error="Выберите значение из списка" errorTitle="Ошибка" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="G4:G1007" type="list">
+    <dataValidation allowBlank="false" error="Выберите значение из списка" errorTitle="Ошибка" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="G4:G1004" type="list">
       <formula1>name6</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" error="Неверный формат данных" errorTitle="Ошибка" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="J4:M1007" type="whole">
+    <dataValidation allowBlank="true" error="Неверный формат данных" errorTitle="Ошибка" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="J4:M1004" type="whole">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="false" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="U4:U1007" type="list">
+    <dataValidation allowBlank="false" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="U4:U1004" type="list">
       <formula1>name20</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" error="Выберите значение из списка" errorTitle="Ошибка" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="W4:W1007" type="list">
+    <dataValidation allowBlank="true" error="Выберите значение из списка" errorTitle="Ошибка" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="W4:W1004" type="list">
       <formula1>name22</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="false" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="Z4:Z1007" type="list">
+    <dataValidation allowBlank="false" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="Z4:Z1004" type="list">
       <formula1>name25</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="false" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="AC4:AC1007" type="list">
+    <dataValidation allowBlank="false" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="AC4:AC1004" type="list">
       <formula1>name28</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="false" error="Неверное значение" errorTitle="Ошибка" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="AE4:AE1007" type="list">
+    <dataValidation allowBlank="false" error="Неверное значение" errorTitle="Ошибка" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="AE4:AE1004" type="list">
       <formula1>"Да,Нет"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="false" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="AF4:AF1007" type="list">
+    <dataValidation allowBlank="false" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="AF4:AF1004" type="list">
       <formula1>name31</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="false" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="AH4:AH1007" type="list">
+    <dataValidation allowBlank="false" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="AH4:AH1004" type="list">
       <formula1>name33</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="false" error="Выберите значение из списка" errorTitle="Ошибка" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="AK4:AK1007" type="list">
+    <dataValidation allowBlank="false" error="Выберите значение из списка" errorTitle="Ошибка" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="AK4:AK1004" type="list">
       <formula1>name36</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="false" error="Выберите значение из списка" errorTitle="Ошибка" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="AL4:AL1007" type="list">
+    <dataValidation allowBlank="false" error="Выберите значение из списка" errorTitle="Ошибка" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="AL4:AL1004" type="list">
       <formula1>name37</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="false" error="Выберите значение из списка" errorTitle="Ошибка" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="AM4:AM1007" type="list">
+    <dataValidation allowBlank="false" error="Выберите значение из списка" errorTitle="Ошибка" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="AM4:AM1004" type="list">
       <formula1>name38</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="false" error="Выберите значение из списка" errorTitle="Ошибка" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="AN4:AN1007" type="list">
+    <dataValidation allowBlank="false" error="Выберите значение из списка" errorTitle="Ошибка" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="AN4:AN1004" type="list">
       <formula1>name39</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -16909,13 +16627,13 @@
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="9" width="16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="2" style="0" width="27"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="5" style="0" width="8.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="5" style="0" width="8.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="61.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="11"/>
       <c r="B1" s="12" t="s">
-        <v>1061</v>
+        <v>1041</v>
       </c>
       <c r="C1" s="12"/>
       <c r="D1" s="12"/>
@@ -16925,13 +16643,13 @@
         <v>982</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>1062</v>
+        <v>1042</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>1063</v>
+        <v>1043</v>
       </c>
       <c r="D2" s="14" t="s">
-        <v>1064</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="41.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -16944,46 +16662,46 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="9" t="s">
-        <v>1030</v>
+        <v>1045</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>1065</v>
+        <v>1046</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>1066</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="9" t="s">
-        <v>1040</v>
+        <v>1048</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>1065</v>
+        <v>1046</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>1066</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="9" t="s">
+        <v>1049</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>1046</v>
+      </c>
+      <c r="C6" s="0" t="s">
         <v>1047</v>
-      </c>
-      <c r="B6" s="0" t="s">
-        <v>1065</v>
-      </c>
-      <c r="C6" s="0" t="s">
-        <v>1066</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="9" t="s">
-        <v>1054</v>
+        <v>1037</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>1065</v>
+        <v>1046</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>1066</v>
+        <v>1047</v>
       </c>
     </row>
   </sheetData>
@@ -17014,7 +16732,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.52"/>
   </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -17046,13 +16764,13 @@
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="9" width="16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="27"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="8.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="8.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="61.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="11"/>
       <c r="B1" s="11" t="s">
-        <v>1067</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="28.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -17060,7 +16778,7 @@
         <v>982</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>1068</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="41.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -17094,7 +16812,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.52"/>
   </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
